--- a/outcome/appendix/data/0_impact/Pertussis.xlsx
+++ b/outcome/appendix/data/0_impact/Pertussis.xlsx
@@ -409,19 +409,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1711.23815847579</v>
+        <v>1711.23815847559</v>
       </c>
       <c r="C2" t="n">
-        <v>1274.92186561255</v>
+        <v>1274.9218656124</v>
       </c>
       <c r="D2" t="n">
-        <v>1043.94997213068</v>
+        <v>1043.94997213056</v>
       </c>
       <c r="E2" t="n">
-        <v>2147.55445133904</v>
+        <v>2147.55445133878</v>
       </c>
       <c r="F2" t="n">
-        <v>2378.5263448209</v>
+        <v>2378.52634482062</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -435,19 +435,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2013.42965098953</v>
+        <v>2013.42965098954</v>
       </c>
       <c r="C3" t="n">
-        <v>1299.25291792272</v>
+        <v>-10409.4239699787</v>
       </c>
       <c r="D3" t="n">
-        <v>921.190592460048</v>
+        <v>-16985.685434921</v>
       </c>
       <c r="E3" t="n">
-        <v>2727.60638405634</v>
+        <v>14436.2832719577</v>
       </c>
       <c r="F3" t="n">
-        <v>3105.66870951901</v>
+        <v>21012.5447369001</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -461,19 +461,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>2739.31543168194</v>
+        <v>2739.31543168216</v>
       </c>
       <c r="C4" t="n">
-        <v>1549.05913005154</v>
+        <v>-294271.333039377</v>
       </c>
       <c r="D4" t="n">
-        <v>918.975504450003</v>
+        <v>-451499.272916328</v>
       </c>
       <c r="E4" t="n">
-        <v>3929.57173331235</v>
+        <v>299749.963902741</v>
       </c>
       <c r="F4" t="n">
-        <v>4559.65535891388</v>
+        <v>456977.903779692</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -487,19 +487,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2654.89876971475</v>
+        <v>2654.89876971476</v>
       </c>
       <c r="C5" t="n">
-        <v>1316.79059473596</v>
+        <v>-3867761.28756017</v>
       </c>
       <c r="D5" t="n">
-        <v>608.438915200394</v>
+        <v>-5916635.85342393</v>
       </c>
       <c r="E5" t="n">
-        <v>3993.00694469354</v>
+        <v>3873071.0850996</v>
       </c>
       <c r="F5" t="n">
-        <v>4701.3586242291</v>
+        <v>5921945.65096336</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -513,19 +513,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>3280.02691565957</v>
+        <v>3280.02691565958</v>
       </c>
       <c r="C6" t="n">
-        <v>1419.94118639796</v>
+        <v>-63860616.0808863</v>
       </c>
       <c r="D6" t="n">
-        <v>435.2712807504</v>
+        <v>-97668120.5230167</v>
       </c>
       <c r="E6" t="n">
-        <v>5140.11264492117</v>
+        <v>63867176.1347176</v>
       </c>
       <c r="F6" t="n">
-        <v>6124.78255056874</v>
+        <v>97674680.576848</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -539,19 +539,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>3470.10111058739</v>
+        <v>3470.1011105874</v>
       </c>
       <c r="C7" t="n">
-        <v>1298.6457295986</v>
+        <v>-786040959.406102</v>
       </c>
       <c r="D7" t="n">
-        <v>149.146686903993</v>
+        <v>-1202147745.27178</v>
       </c>
       <c r="E7" t="n">
-        <v>5641.55649157617</v>
+        <v>786047899.608323</v>
       </c>
       <c r="F7" t="n">
-        <v>6791.05553427078</v>
+        <v>1202154685.474</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -565,19 +565,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>4296.45469666663</v>
+        <v>4296.45469666665</v>
       </c>
       <c r="C8" t="n">
-        <v>1369.62590288351</v>
+        <v>-12663125010.8698</v>
       </c>
       <c r="D8" t="n">
-        <v>-179.743670187218</v>
+        <v>-19366580740.943</v>
       </c>
       <c r="E8" t="n">
-        <v>7223.28349044976</v>
+        <v>12663133603.7792</v>
       </c>
       <c r="F8" t="n">
-        <v>8772.65306352049</v>
+        <v>19366589333.8524</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -591,19 +591,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>4100.32386072456</v>
+        <v>4100.32386072458</v>
       </c>
       <c r="C9" t="n">
-        <v>1089.63159700963</v>
+        <v>-103952396172.797</v>
       </c>
       <c r="D9" t="n">
-        <v>-504.132615365068</v>
+        <v>-158981472821.54</v>
       </c>
       <c r="E9" t="n">
-        <v>7111.01612443949</v>
+        <v>103952404373.444</v>
       </c>
       <c r="F9" t="n">
-        <v>8704.78033681419</v>
+        <v>158981481022.188</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
@@ -617,19 +617,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2335.02659929559</v>
+        <v>2335.0265992956</v>
       </c>
       <c r="C10" t="n">
-        <v>501.041172155362</v>
+        <v>-505271770875.27</v>
       </c>
       <c r="D10" t="n">
-        <v>-469.812068150958</v>
+        <v>-772746490683.405</v>
       </c>
       <c r="E10" t="n">
-        <v>4169.01202643582</v>
+        <v>505271775545.323</v>
       </c>
       <c r="F10" t="n">
-        <v>5139.86526674214</v>
+        <v>772746495353.458</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -643,19 +643,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1740.173823912</v>
+        <v>1740.17382391201</v>
       </c>
       <c r="C11" t="n">
-        <v>286.918772317584</v>
+        <v>-1949929257035.21</v>
       </c>
       <c r="D11" t="n">
-        <v>-482.387981679917</v>
+        <v>-2982159454306.81</v>
       </c>
       <c r="E11" t="n">
-        <v>3193.42887550642</v>
+        <v>1949929260515.56</v>
       </c>
       <c r="F11" t="n">
-        <v>3962.73562950392</v>
+        <v>2982159457787.16</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
@@ -672,16 +672,16 @@
         <v>1501.76555320527</v>
       </c>
       <c r="C12" t="n">
-        <v>174.727663264609</v>
+        <v>-21718069777473.4</v>
       </c>
       <c r="D12" t="n">
-        <v>-527.763761363073</v>
+        <v>-33214921446025.1</v>
       </c>
       <c r="E12" t="n">
-        <v>2828.80344314592</v>
+        <v>21718069780476.9</v>
       </c>
       <c r="F12" t="n">
-        <v>3531.2948677736</v>
+        <v>33214921449028.6</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
@@ -695,19 +695,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1422.31471588049</v>
+        <v>1422.3147158805</v>
       </c>
       <c r="C13" t="n">
-        <v>97.7772857298608</v>
+        <v>-75624041799251</v>
       </c>
       <c r="D13" t="n">
-        <v>-603.39047544146</v>
+        <v>-115656991320409</v>
       </c>
       <c r="E13" t="n">
-        <v>2746.85214603112</v>
+        <v>75624041802095.6</v>
       </c>
       <c r="F13" t="n">
-        <v>3448.01990720244</v>
+        <v>115656991323254</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -721,19 +721,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1711.72952202949</v>
+        <v>1711.72952202929</v>
       </c>
       <c r="C14" t="n">
-        <v>37.436973484319</v>
+        <v>-691753979361696</v>
       </c>
       <c r="D14" t="n">
-        <v>-848.879963346783</v>
+        <v>-1057946416019702</v>
       </c>
       <c r="E14" t="n">
-        <v>3386.02207057467</v>
+        <v>691753979365119</v>
       </c>
       <c r="F14" t="n">
-        <v>4272.33900740577</v>
+        <v>1057946416023126</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -747,19 +747,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2013.98178228124</v>
+        <v>2013.98178228125</v>
       </c>
       <c r="C15" t="n">
-        <v>-49.1622717594812</v>
+        <v>-21689210760380896</v>
       </c>
       <c r="D15" t="n">
-        <v>-1141.32476140777</v>
+        <v>-33170785387306424</v>
       </c>
       <c r="E15" t="n">
-        <v>4077.12583632195</v>
+        <v>21689210760384920</v>
       </c>
       <c r="F15" t="n">
-        <v>5169.28832597024</v>
+        <v>33170785387310448</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
@@ -773,19 +773,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>2740.03285462739</v>
+        <v>2740.03285462761</v>
       </c>
       <c r="C16" t="n">
-        <v>-192.453317597793</v>
+        <v>-646645551354635008</v>
       </c>
       <c r="D16" t="n">
-        <v>-1744.81772591139</v>
+        <v>-988959028643958016</v>
       </c>
       <c r="E16" t="n">
-        <v>5672.51902685257</v>
+        <v>646645551354640384</v>
       </c>
       <c r="F16" t="n">
-        <v>7224.88343516617</v>
+        <v>988959028643963392</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
@@ -799,19 +799,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2655.56285367631</v>
+        <v>2655.56285367632</v>
       </c>
       <c r="C17" t="n">
-        <v>-307.300176160871</v>
+        <v>-6151019982433602560</v>
       </c>
       <c r="D17" t="n">
-        <v>-1875.74512154226</v>
+        <v>-9407173271746504704</v>
       </c>
       <c r="E17" t="n">
-        <v>5618.42588351349</v>
+        <v>6151019982433608704</v>
       </c>
       <c r="F17" t="n">
-        <v>7186.87082889488</v>
+        <v>9407173271746508800</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
@@ -825,19 +825,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>3280.8105425795</v>
+        <v>3280.81054257952</v>
       </c>
       <c r="C18" t="n">
-        <v>-528.043950859728</v>
+        <v>-132020309781676965888</v>
       </c>
       <c r="D18" t="n">
-        <v>-2544.32972504763</v>
+        <v>-201907640204823724032</v>
       </c>
       <c r="E18" t="n">
-        <v>7089.66503601874</v>
+        <v>132020309781676965888</v>
       </c>
       <c r="F18" t="n">
-        <v>9105.95081020664</v>
+        <v>201907640204823724032</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
@@ -851,19 +851,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>3470.89296754637</v>
+        <v>3470.89296754639</v>
       </c>
       <c r="C19" t="n">
-        <v>-715.031617345307</v>
+        <v>-1828813918343677870080</v>
       </c>
       <c r="D19" t="n">
-        <v>-2930.92624048684</v>
+        <v>-2796929527260944269312</v>
       </c>
       <c r="E19" t="n">
-        <v>7656.81755243804</v>
+        <v>1828813918343677870080</v>
       </c>
       <c r="F19" t="n">
-        <v>9872.71217557958</v>
+        <v>2796929527260944269312</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
@@ -877,19 +877,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>4297.39118840022</v>
+        <v>4297.39118840024</v>
       </c>
       <c r="C20" t="n">
-        <v>-1078.50157537429</v>
+        <v>-17676687161867689263104</v>
       </c>
       <c r="D20" t="n">
-        <v>-3924.32730114802</v>
+        <v>-27034160103046177095680</v>
       </c>
       <c r="E20" t="n">
-        <v>9673.28395217473</v>
+        <v>17676687161867689263104</v>
       </c>
       <c r="F20" t="n">
-        <v>12519.1096779485</v>
+        <v>27034160103046177095680</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
@@ -903,19 +903,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>4101.17758596175</v>
+        <v>4101.17758596177</v>
       </c>
       <c r="C21" t="n">
-        <v>-1213.48904936411</v>
+        <v>-106753017219949980024832</v>
       </c>
       <c r="D21" t="n">
-        <v>-4026.90362054733</v>
+        <v>-163264650925826824470528</v>
       </c>
       <c r="E21" t="n">
-        <v>9415.84422128762</v>
+        <v>106753017219949980024832</v>
       </c>
       <c r="F21" t="n">
-        <v>12229.2587924708</v>
+        <v>163264650925826824470528</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
@@ -929,19 +929,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>2335.49102465863</v>
+        <v>2335.49102465865</v>
       </c>
       <c r="C22" t="n">
-        <v>-796.00156086228</v>
+        <v>-523915365399610966147072</v>
       </c>
       <c r="D22" t="n">
-        <v>-2453.7136008041</v>
+        <v>-801259406752012541362176</v>
       </c>
       <c r="E22" t="n">
-        <v>5466.98361017955</v>
+        <v>523915365399610966147072</v>
       </c>
       <c r="F22" t="n">
-        <v>7124.69565012137</v>
+        <v>801259406752012541362176</v>
       </c>
       <c r="G22" t="s">
         <v>8</v>
@@ -955,19 +955,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1740.50446706623</v>
+        <v>1740.50446706624</v>
       </c>
       <c r="C23" t="n">
-        <v>-671.553727303148</v>
+        <v>-3317639694838915227713536</v>
       </c>
       <c r="D23" t="n">
-        <v>-1948.42020571484</v>
+        <v>-5073892062081390550712320</v>
       </c>
       <c r="E23" t="n">
-        <v>4152.5626614356</v>
+        <v>3317639694838915227713536</v>
       </c>
       <c r="F23" t="n">
-        <v>5429.4291398473</v>
+        <v>5073892062081390550712320</v>
       </c>
       <c r="G23" t="s">
         <v>8</v>
@@ -981,19 +981,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1502.03815664597</v>
+        <v>1502.03815664598</v>
       </c>
       <c r="C24" t="n">
-        <v>-647.325512364528</v>
+        <v>-38460594392942416161144832</v>
       </c>
       <c r="D24" t="n">
-        <v>-1785.12990915812</v>
+        <v>-58820403221259878467108864</v>
       </c>
       <c r="E24" t="n">
-        <v>3651.40182565648</v>
+        <v>38460594392942416161144832</v>
       </c>
       <c r="F24" t="n">
-        <v>4789.20622245007</v>
+        <v>58820403221259878467108864</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
@@ -1007,19 +1007,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1422.56138087784</v>
+        <v>1422.56138087785</v>
       </c>
       <c r="C25" t="n">
-        <v>-677.493900385643</v>
+        <v>-263107375754978531123134464</v>
       </c>
       <c r="D25" t="n">
-        <v>-1789.19601342602</v>
+        <v>-402388007171185551700131840</v>
       </c>
       <c r="E25" t="n">
-        <v>3522.61666214132</v>
+        <v>263107375754978531123134464</v>
       </c>
       <c r="F25" t="n">
-        <v>4634.3187751817</v>
+        <v>402388007171185551700131840</v>
       </c>
       <c r="G25" t="s">
         <v>8</v>
@@ -1033,19 +1033,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1712.01315388295</v>
+        <v>1712.01315388275</v>
       </c>
       <c r="C26" t="n">
-        <v>-893.227190216554</v>
+        <v>-2175741725067411945575940096</v>
       </c>
       <c r="D26" t="n">
-        <v>-2272.35812136564</v>
+        <v>-3327509821254059397992153088</v>
       </c>
       <c r="E26" t="n">
-        <v>4317.25349798246</v>
+        <v>2175741725067411945575940096</v>
       </c>
       <c r="F26" t="n">
-        <v>5696.38442913154</v>
+        <v>3327509821254059397992153088</v>
       </c>
       <c r="G26" t="s">
         <v>8</v>
@@ -1059,19 +1059,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2014.30064349154</v>
+        <v>2014.30064349155</v>
       </c>
       <c r="C27" t="n">
-        <v>-1143.0285291308</v>
+        <v>-84907047562919561573810831360</v>
       </c>
       <c r="D27" t="n">
-        <v>-2814.41763211503</v>
+        <v>-129854123494619618615350001664</v>
       </c>
       <c r="E27" t="n">
-        <v>5171.62981611387</v>
+        <v>84907047562919561573810831360</v>
       </c>
       <c r="F27" t="n">
-        <v>6843.0189190981</v>
+        <v>129854123494619618615350001664</v>
       </c>
       <c r="G27" t="s">
         <v>8</v>
@@ -1085,19 +1085,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>2740.44738022962</v>
+        <v>2740.44738022984</v>
       </c>
       <c r="C28" t="n">
-        <v>-1681.10146247916</v>
+        <v>-2698522461850530883508375650304</v>
       </c>
       <c r="D28" t="n">
-        <v>-4021.72803322031</v>
+        <v>-4127033963281700596675774513152</v>
       </c>
       <c r="E28" t="n">
-        <v>7161.9962229384</v>
+        <v>2698522461850530883508375650304</v>
       </c>
       <c r="F28" t="n">
-        <v>9502.62279367955</v>
+        <v>4127033963281700596675774513152</v>
       </c>
       <c r="G28" t="s">
         <v>8</v>
@@ -1111,19 +1111,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2655.9467604479</v>
+        <v>2655.94676044792</v>
       </c>
       <c r="C29" t="n">
-        <v>-1752.19204439034</v>
+        <v>-18162171598670484460061801316352</v>
       </c>
       <c r="D29" t="n">
-        <v>-4085.71976989173</v>
+        <v>-27776644476496907917211430027264</v>
       </c>
       <c r="E29" t="n">
-        <v>7064.08556528615</v>
+        <v>18162171598670484460061801316352</v>
       </c>
       <c r="F29" t="n">
-        <v>9397.61329078754</v>
+        <v>27776644476496907917211430027264</v>
       </c>
       <c r="G29" t="s">
         <v>8</v>
@@ -1137,19 +1137,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>3281.26380442485</v>
+        <v>3281.26380442487</v>
       </c>
       <c r="C30" t="n">
-        <v>-2317.68036395237</v>
+        <v>-581492041481378652316281276989440</v>
       </c>
       <c r="D30" t="n">
-        <v>-5281.58237087249</v>
+        <v>-889315334038744977807856942186496</v>
       </c>
       <c r="E30" t="n">
-        <v>8880.20797280206</v>
+        <v>581492041481378652316281276989440</v>
       </c>
       <c r="F30" t="n">
-        <v>11844.1099797222</v>
+        <v>889315334038744977807856942186496</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -1163,19 +1163,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>3471.3512512221</v>
+        <v>3471.35125122212</v>
       </c>
       <c r="C31" t="n">
-        <v>-2615.00414285591</v>
+        <v>-5657638077238735118021138195677184</v>
       </c>
       <c r="D31" t="n">
-        <v>-5836.9260668542</v>
+        <v>-8652610762671996712235084623642624</v>
       </c>
       <c r="E31" t="n">
-        <v>9557.7066453001</v>
+        <v>5657638077238735118021138195677184</v>
       </c>
       <c r="F31" t="n">
-        <v>12779.6285692984</v>
+        <v>8652610762671996712235084623642624</v>
       </c>
       <c r="G31" t="s">
         <v>8</v>
@@ -1189,19 +1189,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>4297.93350225415</v>
+        <v>4297.93350225418</v>
       </c>
       <c r="C32" t="n">
-        <v>-3441.22159518437</v>
+        <v>-59580696918312535408668306183290880</v>
       </c>
       <c r="D32" t="n">
-        <v>-7538.08283104351</v>
+        <v>-91120812672149232161203468059541504</v>
       </c>
       <c r="E32" t="n">
-        <v>12037.0885996927</v>
+        <v>59580696918312535408668306183290880</v>
       </c>
       <c r="F32" t="n">
-        <v>16133.9498355518</v>
+        <v>91120812672149232161203468059541504</v>
       </c>
       <c r="G32" t="s">
         <v>8</v>
@@ -1215,19 +1215,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>4101.67227891347</v>
+        <v>4101.67227891349</v>
       </c>
       <c r="C33" t="n">
-        <v>-3480.02380522459</v>
+        <v>-442342874903025459796788827951988736</v>
       </c>
       <c r="D33" t="n">
-        <v>-7493.53127446379</v>
+        <v>-676505048206477158272405429867773952</v>
       </c>
       <c r="E33" t="n">
-        <v>11683.3683630515</v>
+        <v>442342874903025459796788827951988736</v>
       </c>
       <c r="F33" t="n">
-        <v>15696.8758322907</v>
+        <v>676505048206477158272405429867773952</v>
       </c>
       <c r="G33" t="s">
         <v>8</v>
@@ -1241,19 +1241,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2335.76031243364</v>
+        <v>2335.76031243365</v>
       </c>
       <c r="C34" t="n">
-        <v>-2094.35860521491</v>
+        <v>-2013371268508861797258729134879670272</v>
       </c>
       <c r="D34" t="n">
-        <v>-4439.52189958637</v>
+        <v>-3079185637066554447072371761905401856</v>
       </c>
       <c r="E34" t="n">
-        <v>6765.87923008219</v>
+        <v>2013371268508861797258729134879670272</v>
       </c>
       <c r="F34" t="n">
-        <v>9111.04252445364</v>
+        <v>3079185637066554447072371761905401856</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
@@ -1267,19 +1267,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1740.69631455798</v>
+        <v>1740.69631455799</v>
       </c>
       <c r="C35" t="n">
-        <v>-1645.51781252537</v>
+        <v>-29272464310839226895371538910442160128</v>
       </c>
       <c r="D35" t="n">
-        <v>-3438.07129141326</v>
+        <v>-44768370879870206637561397155666591744</v>
       </c>
       <c r="E35" t="n">
-        <v>5126.91044164132</v>
+        <v>29272464310839226895371538910442160128</v>
       </c>
       <c r="F35" t="n">
-        <v>6919.46392052921</v>
+        <v>44768370879870206637561397155666591744</v>
       </c>
       <c r="G35" t="s">
         <v>8</v>
@@ -1293,19 +1293,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1502.19644068395</v>
+        <v>1502.19644068396</v>
       </c>
       <c r="C36" t="n">
-        <v>-1493.90429372113</v>
+        <v>-235715343908081237978773326981454888960</v>
       </c>
       <c r="D36" t="n">
-        <v>-3079.94421706831</v>
+        <v>-360495509571622967439693440758432399360</v>
       </c>
       <c r="E36" t="n">
-        <v>4498.29717508903</v>
+        <v>235715343908081237978773326981454888960</v>
       </c>
       <c r="F36" t="n">
-        <v>6084.33709843621</v>
+        <v>360495509571622967439693440758432399360</v>
       </c>
       <c r="G36" t="s">
         <v>8</v>
@@ -1319,19 +1319,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1422.70471064257</v>
+        <v>1422.70471064258</v>
       </c>
       <c r="C37" t="n">
-        <v>-1485.51430851238</v>
+        <v>-2498682301717361862488754375366870564864</v>
       </c>
       <c r="D37" t="n">
-        <v>-3025.03246197433</v>
+        <v>-3821404812605049768432698802528749355008</v>
       </c>
       <c r="E37" t="n">
-        <v>4330.92372979752</v>
+        <v>2498682301717361862488754375366870564864</v>
       </c>
       <c r="F37" t="n">
-        <v>5870.44188325947</v>
+        <v>3821404812605049768432698802528749355008</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -1345,19 +1345,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>1712.17809211028</v>
+        <v>1712.17809211008</v>
       </c>
       <c r="C38" t="n">
-        <v>-1873.73729486275</v>
+        <v>-23815001943870034574654025528983378984960</v>
       </c>
       <c r="D38" t="n">
-        <v>-3772.00623494679</v>
+        <v>-36421902447523632208938591811388902998016</v>
       </c>
       <c r="E38" t="n">
-        <v>5298.0934790833</v>
+        <v>23815001943870034574654025528983378984960</v>
       </c>
       <c r="F38" t="n">
-        <v>7196.36241916734</v>
+        <v>36421902447523632208938591811388902998016</v>
       </c>
       <c r="G38" t="s">
         <v>8</v>
@@ -1371,19 +1371,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2014.48621896994</v>
+        <v>2014.48621896995</v>
       </c>
       <c r="C39" t="n">
-        <v>-2306.81623825868</v>
+        <v>-984550880729249997989200035306101071151104</v>
       </c>
       <c r="D39" t="n">
-        <v>-4594.37557807632</v>
+        <v>-1505740634288478799669983618642016018104320</v>
       </c>
       <c r="E39" t="n">
-        <v>6335.78867619856</v>
+        <v>984550880729249997989200035306101071151104</v>
       </c>
       <c r="F39" t="n">
-        <v>8623.34801601619</v>
+        <v>1505740634288478799669983618642016018104320</v>
       </c>
       <c r="G39" t="s">
         <v>8</v>
